--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -564,7 +564,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M7</t>
+          <t>31798_20902_1300_T02014_4_M6</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['31798_20706_1300_T02149|W1817_4_M7']</t>
+          <t>['31798_20706_1300_T02149|W1817_4_M6']</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -602,7 +602,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M7</t>
+          <t>31800_20902_1300_T02126_4_M6</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -610,7 +610,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['31800_20706_1300_T02149|W1817_4_M7']</t>
+          <t>['31800_20706_1300_T02149|W1817_4_M6']</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -640,7 +640,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M7</t>
+          <t>31802_20902_1300_T02015_4_M6</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['31802_20706_1300_T02149_4_M7']</t>
+          <t>['31802_20706_1300_T02149_4_M6']</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -792,7 +792,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M7</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -800,7 +800,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['31798_20500_1300_WRF065_4_M7']</t>
+          <t>['31798_20500_1300_WRF065_4_M6']</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -830,7 +830,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M7</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['31800_20500_1300_WRF065_4_M7']</t>
+          <t>['31800_20500_1300_WRF065_4_M6']</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -868,7 +868,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M7</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -876,7 +876,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['31802_20500_1300_WRF065_4_M7']</t>
+          <t>['31802_20500_1300_WRF065_4_M6']</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -944,7 +944,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M7</t>
+          <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['31798_20906_1300_None_4_M7']</t>
+          <t>['31798_20906_1300_None_4_M6']</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -982,7 +982,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>31800_20500_1300_WRF065_4_M7</t>
+          <t>31800_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -990,7 +990,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['31800_20906_1300_None_4_M7']</t>
+          <t>['31800_20906_1300_None_4_M6']</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1020,7 +1020,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31802_20500_1300_WRF065_4_M7</t>
+          <t>31802_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['31802_20906_1300_None_4_M7']</t>
+          <t>['31802_20906_1300_None_4_M6']</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1058,7 +1058,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>31798_20906_1300_None_4_M7</t>
+          <t>31798_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1096,7 +1096,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>31800_20906_1300_None_4_M7</t>
+          <t>31800_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1134,7 +1134,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>31802_20906_1300_None_4_M7</t>
+          <t>31802_20906_1300_None_4_M6</t>
         </is>
       </c>
       <c r="B19" t="n">

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,13 +503,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -541,13 +541,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -716,36 +716,36 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+          <t>32528_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32528_23100_1300_T01862_4_M5']</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0, 1]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -754,7 +754,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31704_12400_1300_T01288|T01715_4_M5</t>
+          <t>31540_20700_1300_T02149|W1809_4_M5</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -769,30 +769,30 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0, 1]</t>
+          <t>[0, 57]</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+          <t>31704_12400_1300_T01288|T01715_4_M5</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -800,37 +800,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['31798_20500_1300_WRF065_4_M6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[0, 2]</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>[0, 9.0]</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M6</t>
+          <t>31798_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -838,28 +838,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['31800_20500_1300_WRF065_4_M6']</t>
+          <t>['31798_20500_1300_WRF065_4_M6']</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
         <v>15</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0, 14.0]</t>
+          <t>[0, 13.0]</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -868,7 +868,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M6</t>
+          <t>31800_20706_1300_T02149|W1817_4_M6</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -876,28 +876,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['31802_20500_1300_WRF065_4_M6']</t>
+          <t>['31800_20500_1300_WRF065_4_M6']</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0, 19.0]</t>
+          <t>[0, 23.0]</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -906,7 +906,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>31802_20706_1300_T02149_4_M6</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -914,28 +914,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31802_20500_1300_WRF065_4_M6']</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0, 6.0]</t>
+          <t>[0, 32.0]</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -944,36 +944,36 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M6</t>
+          <t>31864_20700_1300_W1809_4_M5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['31798_20906_1300_None_4_M6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[0, 10.0]</t>
+          <t>[0, 92.0]</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -982,45 +982,45 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>31800_20500_1300_WRF065_4_M6</t>
+          <t>32528_23100_1300_T01862_4_M5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['31800_20906_1300_None_4_M6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>98</v>
+      </c>
+      <c r="G15" t="n">
+        <v>102</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[0, 2]</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>98</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>23</v>
-      </c>
-      <c r="G15" t="n">
-        <v>24</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[0, 15.0]</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31802_20500_1300_WRF065_4_M6</t>
+          <t>31798_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1028,28 +1028,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['31802_20906_1300_None_4_M6']</t>
+          <t>['31798_20906_1300_None_4_M6']</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0, 20.0]</t>
+          <t>[0, 15.0]</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -1058,114 +1058,190 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>31798_20906_1300_None_4_M6</t>
+          <t>31800_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31800_20906_1300_None_4_M6']</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G17" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[0, 23.0]</t>
+          <t>[0, 27.0]</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>31800_20906_1300_None_4_M6</t>
+          <t>31802_20500_1300_WRF065_4_M6</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31802_20906_1300_None_4_M6']</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G18" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0, 24.0]</t>
+          <t>[0, 36.0]</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>31798_20906_1300_None_4_M6</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>45</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[0, 41.0]</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>41</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>31800_20906_1300_None_4_M6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>46</v>
+      </c>
+      <c r="G20" t="n">
+        <v>54</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[0, 46.0]</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>46</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>31802_20906_1300_None_4_M6</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>25</v>
-      </c>
-      <c r="G19" t="n">
-        <v>26</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>[0, 25.0]</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>25</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>54</v>
+      </c>
+      <c r="G21" t="n">
+        <v>62</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[0, 51.0]</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>51</v>
+      </c>
+      <c r="J21" t="n">
         <v>2</v>
       </c>
     </row>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31540_20300_1300_T02296_4_M5</t>
+          <t>25296_20300_1300_T02668_4_M11</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,20 +496,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['31540_20700_1300_T02149|W1809_4_M5']</t>
+          <t>['25296_20700_1300_None_4_M11']</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G2" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31704_23311_1300_T01521|T0915_4_M5</t>
+          <t>25441_20300_1300_T02606_4_M11</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -534,20 +534,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['31704_12400_1300_T01288|T01715_4_M5']</t>
+          <t>['25441_20700_1300_T0873_4_M11']</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -558,13 +558,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>31798_20902_1300_T02014_4_M6</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -572,37 +572,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['31798_20706_1300_T02149|W1817_4_M6']</t>
+          <t>['26300_20700_1300_T02149_4_M11']</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>71</v>
+      </c>
+      <c r="G4" t="n">
+        <v>71</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31800_20902_1300_T02126_4_M6</t>
+          <t>27870_20300_1300_T02670_4_M11</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -610,20 +610,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['31800_20706_1300_T02149|W1817_4_M6']</t>
+          <t>['27870_20700_1300_None_4_M11']</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -634,13 +634,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31802_20902_1300_T02015_4_M6</t>
+          <t>30234_20902_1300_T02560_4_M10</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -648,20 +648,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['31802_20706_1300_T02149_4_M6']</t>
+          <t>['30234_20500_1300_W2010_4_M10']</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31864_20300_1300_W2044|T02515_4_M5</t>
+          <t>30260_20902_1300_T02089_4_M10</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -686,20 +686,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['31864_20700_1300_W1809_4_M5']</t>
+          <t>['30260_20500_1300_WRF065|W2010_4_M10']</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>32528_20700_1300_T02149|W1809_4_M5</t>
+          <t>31600_20902_1300_T02295_4_M11</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -724,20 +724,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['32528_23100_1300_T01862_4_M5']</t>
+          <t>['31600_20705_1300_W2027|W1912_4_M11']</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -748,80 +748,80 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31540_20700_1300_T02149|W1809_4_M5</t>
+          <t>31602_20902_1300_T02390|T02293_4_M11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31602_20705_1300_W2027|W1912_4_M11']</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0, 57]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31704_12400_1300_T01288|T01715_4_M5</t>
+          <t>31704_23311_1300_T01521|T0915_4_M10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31704_12400_1300_T01288|T01715_4_M10']</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0, 2]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -830,419 +830,2547 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31798_20706_1300_T02149|W1817_4_M6</t>
+          <t>31722_23311_1300_T0915|T01362_4_M10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['31798_20500_1300_WRF065_4_M6']</t>
+          <t>['31722_12400_1300_T01716|T01362_4_M10']</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0, 13.0]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31800_20706_1300_T02149|W1817_4_M6</t>
+          <t>31739_20902_1300_T02600|W2032_4_M10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['31800_20500_1300_WRF065_4_M6']</t>
+          <t>['31739_20702_1300_T02150|W1818_4_M10']</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0, 23.0]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31802_20706_1300_T02149_4_M6</t>
+          <t>31772_20710_1300_T01020_4_M10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['31802_20500_1300_WRF065_4_M6']</t>
+          <t>['31772_23100_1300_T01226|W2060_4_M10']</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" t="n">
         <v>36</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0, 32.0]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31864_20700_1300_W1809_4_M5</t>
+          <t>32016_20902_1300_W2039|T02496_4_M11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32016_20706_1300_T02149|W1817_4_M11']</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="G14" t="n">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[0, 92.0]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>32528_23100_1300_T01862_4_M5</t>
+          <t>32017_20902_1300_T02319_4_M11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32017_20706_1300_None_4_M11']</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="G15" t="n">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[0, 2]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>31798_20500_1300_WRF065_4_M6</t>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['32018_20706_1300_T02149_4_M11']</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>['31798_20906_1300_None_4_M6']</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>38</v>
-      </c>
-      <c r="G16" t="n">
-        <v>41</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>[0, 15.0]</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>31800_20500_1300_WRF065_4_M6</t>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['32019_20706_1300_T02149|W1817_4_M11']</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>34</v>
+      </c>
+      <c r="G17" t="n">
+        <v>34</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['31800_20906_1300_None_4_M6']</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>41</v>
-      </c>
-      <c r="G17" t="n">
-        <v>46</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>[0, 27.0]</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>31802_20500_1300_WRF065_4_M6</t>
+          <t>32041_20500_1300_T0915_4_M10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['31802_20906_1300_None_4_M6']</t>
+          <t>['32041_12400_1300_T01576_4_M10']</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[0, 36.0]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>31798_20906_1300_None_4_M6</t>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32265_20702_1300_T02150|W1818_4_M11']</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[0, 41.0]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>31800_20906_1300_None_4_M6</t>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32267_20702_1300_T02150|W1818_4_M11']</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G20" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[0, 46.0]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>31802_20906_1300_None_4_M6</t>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32363_20706_1300_W1817_4_M11']</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>54</v>
       </c>
       <c r="G21" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[0, 51.0]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>32413_23311_1300_T0915_4_M10</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['32413_12400_1300_T01288|T01715_4_M10']</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18</v>
+      </c>
+      <c r="G22" t="n">
+        <v>18</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>32453_23311_1300_T0915|T02098_4_M10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['32453_12400_1300_T02244_4_M10']</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" t="n">
+        <v>22</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>32470_23311_1300_T0915_4_M11</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['32470_12400_1300_T01521_4_M11']</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>60</v>
+      </c>
+      <c r="G24" t="n">
+        <v>61</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>32556_20710_1300_T01020_4_M10</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['32556_23100_1300_T01226_4_M10']</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>36</v>
+      </c>
+      <c r="G25" t="n">
+        <v>38</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>32571_23312_1300_T01639_4_M3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['32571_23316_1300_T01640_4_M3']</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25296_20700_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>63</v>
+      </c>
+      <c r="G27" t="n">
+        <v>63</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[0, 63.0]</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>63</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25441_20700_1300_T0873_4_M11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>67</v>
+      </c>
+      <c r="G28" t="n">
+        <v>67</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[0, 67.0]</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>67</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26300_20700_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>71</v>
+      </c>
+      <c r="G29" t="n">
+        <v>71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[0, 71.0]</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>71</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>27870_20700_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>89</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[0, 75.0]</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30234_20500_1300_W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['30234_20702_1300_T02150_4_M10']</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[0, 8.0]</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['30260_20702_1300_T02150|W1818_4_M10']</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[0, 13.0]</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['31600_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>46</v>
+      </c>
+      <c r="G33" t="n">
+        <v>47</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[0, 46.0]</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>46</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['31602_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>52</v>
+      </c>
+      <c r="G34" t="n">
+        <v>54</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[0, 52.0]</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>52</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>31704_12400_1300_T01288|T01715_4_M10</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>33</v>
+      </c>
+      <c r="G35" t="n">
+        <v>34</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[0, 31.0]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>31</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>31722_12400_1300_T01716|T01362_4_M10</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30</v>
+      </c>
+      <c r="G36" t="n">
+        <v>30</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[0, 30.0]</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>30</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['31739_20500_1300_WRF065_4_M10']</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[0, 2]</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>31772_23100_1300_T01226|W2060_4_M10</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[0, 36.0]</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>36</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>32016_20706_1300_T02149|W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['32016_20500_1300_W2053|WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>56</v>
+      </c>
+      <c r="G39" t="n">
+        <v>56</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[0, 56.0]</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>56</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>32017_20706_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['32017_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25</v>
+      </c>
+      <c r="G40" t="n">
+        <v>28</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[0, 25.0]</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>32018_20706_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['32018_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>30</v>
+      </c>
+      <c r="G41" t="n">
+        <v>31</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[0, 30.0]</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>30</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['32019_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>34</v>
+      </c>
+      <c r="G42" t="n">
+        <v>34</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[0, 34.0]</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>32041_12400_1300_T01576_4_M10</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[0, 18.0]</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>18</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['32265_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>74</v>
+      </c>
+      <c r="G44" t="n">
+        <v>78</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[0, 46.0]</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>46</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['32267_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[0, 50.0]</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>50</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>32363_20706_1300_W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['32363_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>63</v>
+      </c>
+      <c r="G46" t="n">
+        <v>65</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[0, 59.0]</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>59</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>32413_12400_1300_T01288|T01715_4_M10</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>18</v>
+      </c>
+      <c r="G47" t="n">
+        <v>18</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[0, 18.0]</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>32453_12400_1300_T02244_4_M10</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>26</v>
+      </c>
+      <c r="G48" t="n">
+        <v>28</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[0, 22.0]</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>32470_12400_1300_T01521_4_M11</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>73</v>
+      </c>
+      <c r="G49" t="n">
+        <v>74</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[0, 61.0]</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>61</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>32556_23100_1300_T01226_4_M10</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>40</v>
+      </c>
+      <c r="G50" t="n">
+        <v>41</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[0, 38.0]</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>38</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>32571_23316_1300_T01640_4_M3</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['32571_20500_1300_T01514_4_M3']</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[0, 1]</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>30234_20702_1300_T02150_4_M10</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['30234_20906_1300_None_4_M10']</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18</v>
+      </c>
+      <c r="G52" t="n">
+        <v>19</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[0, 11.0]</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['30260_20906_1300_None_4_M10']</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>19</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[0, 14.0]</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>31600_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['31600_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>56</v>
+      </c>
+      <c r="G54" t="n">
+        <v>57</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[0, 47.0]</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>47</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>31602_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['31602_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>57</v>
+      </c>
+      <c r="G55" t="n">
+        <v>59</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[0, 54.0]</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>54</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>31739_20500_1300_WRF065_4_M10</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['31739_20906_1300_None_4_M10']</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[0, 3]</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['32016_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>56</v>
+      </c>
+      <c r="G57" t="n">
+        <v>56</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[0, 56.0]</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>56</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>32017_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['32017_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>36</v>
+      </c>
+      <c r="G58" t="n">
+        <v>41</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[0, 28.0]</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>28</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>32018_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['32018_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>41</v>
+      </c>
+      <c r="G59" t="n">
+        <v>42</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[0, 31.0]</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>31</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>32019_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['32019_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>34</v>
+      </c>
+      <c r="G60" t="n">
+        <v>34</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[0, 34.0]</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>32265_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['32265_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>80</v>
+      </c>
+      <c r="G61" t="n">
+        <v>85</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[0, 78.0]</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>78</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>32267_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['32267_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>50</v>
+      </c>
+      <c r="G62" t="n">
+        <v>50</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[0, 50.0]</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>50</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>32363_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>['32363_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>67</v>
+      </c>
+      <c r="G63" t="n">
+        <v>70</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[0, 65.0]</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>65</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>32571_20500_1300_T01514_4_M3</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['32571_12400_1300_T01713_4_M3']</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="n">
+        <v>11</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[0, 6.0]</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>30234_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>19</v>
+      </c>
+      <c r="G65" t="n">
+        <v>21</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[0, 19.0]</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>19</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>30260_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>21</v>
+      </c>
+      <c r="G66" t="n">
+        <v>22</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[0, 20.0]</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>31600_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>57</v>
+      </c>
+      <c r="G67" t="n">
+        <v>59</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[0, 57.0]</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>57</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>31602_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>4</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>59</v>
+      </c>
+      <c r="G68" t="n">
+        <v>61</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[0, 59.0]</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>59</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>31739_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[0, 6.0]</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>32016_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>56</v>
+      </c>
+      <c r="G70" t="n">
+        <v>56</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[0, 56.0]</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>32017_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7</v>
+      </c>
+      <c r="F71" t="n">
+        <v>41</v>
+      </c>
+      <c r="G71" t="n">
+        <v>48</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[0, 41.0]</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>41</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>32018_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>48</v>
+      </c>
+      <c r="G72" t="n">
+        <v>49</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[0, 42.0]</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>42</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>32019_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>34</v>
+      </c>
+      <c r="G73" t="n">
+        <v>34</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[0, 34.0]</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>34</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>32265_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>85</v>
+      </c>
+      <c r="G74" t="n">
+        <v>93</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[0, 85.0]</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>85</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>32267_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>50</v>
+      </c>
+      <c r="G75" t="n">
+        <v>50</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[0, 50.0]</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>50</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>32363_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4</v>
+      </c>
+      <c r="F76" t="n">
+        <v>70</v>
+      </c>
+      <c r="G76" t="n">
+        <v>74</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[0, 70.0]</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>70</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>32571_12400_1300_T01713_4_M3</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>15</v>
+      </c>
+      <c r="G77" t="n">
+        <v>16</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[0, 11.0]</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>11</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G29" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>71</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2292,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G49" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -519,8 +519,10 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>6</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>O2310</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -595,8 +597,10 @@
       <c r="I4" t="n">
         <v>101</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>32409_24000_1300_T01824_4_M10</t>
+          <t>25296_20300_1300_T02668_4_M11</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,20 +496,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['32409_24000_1300_T01824_4_M10_AGING']</t>
+          <t>['25296_20700_1300_None_4_M11']</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -521,124 +521,3274 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>O2310</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>32409_24000_1300_T01824_4_M10_AGING</t>
+          <t>25441_20300_1300_T02606_4_M11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['32409_23100_1300_T01862_4_M10']</t>
+          <t>['25441_20700_1300_T0873_4_M11']</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="G3" t="n">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[0, 1]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>32409_23100_1300_T01862_4_M10</t>
+          <t>26300_20300_1300_T02624_4_M11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['32409_23100_1300_T01862_4_M10_AGING']</t>
+          <t>['26300_20700_1300_T02149_4_M11']</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[0, 101]</t>
+          <t>[0]</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32409_23100_1300_T01862_4_M10_AGING</t>
+          <t>27870_20300_1300_T02670_4_M11</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['27870_20700_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>30234_20902_1300_T02560_4_M10</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['30234_20500_1300_W2010_4_M10']</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>30260_20902_1300_T02089_4_M10</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['30260_20500_1300_WRF065|W2010_4_M10']</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>31600_20902_1300_T02295_4_M11</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['31600_20705_1300_W2027|W1912_4_M11']</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>39</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>31602_20902_1300_T02390|T02293_4_M11</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['31602_20705_1300_W2027|W1912_4_M11']</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>45</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>31704_23311_1300_T01521|T0915_4_M10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['31704_23311_1300_T01521|T0915_4_M10_AGING']</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>31722_23311_1300_T0915|T01362_4_M10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['31722_23311_1300_T0915|T01362_4_M10_AGING']</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>31739_20902_1300_T02600|W2032_4_M10</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['31739_20702_1300_T02150|W1818_4_M10']</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>31772_20710_1300_T01020_4_M10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['31772_23100_1300_T01226|W2060_4_M10']</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29</v>
+      </c>
+      <c r="G13" t="n">
+        <v>29</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>32016_20902_1300_W2039|T02496_4_M11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['32016_20706_1300_T02149|W1817_4_M11']</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>49</v>
+      </c>
+      <c r="G14" t="n">
+        <v>49</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>32017_20902_1300_T02319_4_M11</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['32017_20706_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['32018_20706_1300_T02149_4_M11']</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>41</v>
+      </c>
+      <c r="G16" t="n">
+        <v>42</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['32019_20706_1300_T02149|W1817_4_M11']</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>59</v>
+      </c>
+      <c r="G17" t="n">
+        <v>59</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>32041_20500_1300_T0915_4_M10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['32041_20500_1300_T0915_4_M10_AGING']</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['32265_20702_1300_T02150|W1818_4_M11']</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>29</v>
+      </c>
+      <c r="G19" t="n">
+        <v>37</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['32267_20702_1300_T02150|W1818_4_M11']</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>46</v>
+      </c>
+      <c r="G20" t="n">
+        <v>46</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['32363_20706_1300_W1817_4_M11']</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" t="n">
+        <v>55</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>32413_23311_1300_T0915_4_M10</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['32413_23311_1300_T0915_4_M10_AGING']</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G22" t="n">
+        <v>15</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>32453_23311_1300_T0915|T02098_4_M10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['32453_23311_1300_T0915|T02098_4_M10_AGING']</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>19</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>32470_23311_1300_T0915_4_M11</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['32470_23311_1300_T0915_4_M11_AGING']</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>53</v>
+      </c>
+      <c r="G24" t="n">
+        <v>54</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>32556_20710_1300_T01020_4_M10</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['32556_23100_1300_T01226_4_M10']</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>31</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>32571_23312_1300_T01639_4_M3</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['32571_23316_1300_T01640_4_M3']</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25296_20700_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>64</v>
+      </c>
+      <c r="G27" t="n">
+        <v>64</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[0, 63.0]</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>63</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25441_20700_1300_T0873_4_M11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>71</v>
+      </c>
+      <c r="G28" t="n">
+        <v>71</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[0, 71.0]</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>26300_20700_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>68</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[0, 67.0]</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>67</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>27870_20700_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>81</v>
+      </c>
+      <c r="G30" t="n">
+        <v>81</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[0, 75.0]</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>75</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30234_20500_1300_W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['30234_20702_1300_T02150_4_M10']</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
+        <v>11</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[0, 8.0]</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['30260_20702_1300_T02150|W1818_4_M10']</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[0, 13.0]</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>13</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['31600_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>40</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[0, 39.0]</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>39</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['31602_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>45</v>
+      </c>
+      <c r="G34" t="n">
+        <v>47</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[0, 45.0]</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>45</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>31704_23311_1300_T01521|T0915_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['31704_12400_1300_T01288|T01715_4_M10']</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>120</v>
+      </c>
+      <c r="F35" t="n">
+        <v>16</v>
+      </c>
+      <c r="G35" t="n">
+        <v>136</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[0, 16.0]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>31722_23311_1300_T0915|T01362_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['31722_12400_1300_T01716|T01362_4_M10']</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>120</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" t="n">
+        <v>145</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[0, 25.0]</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['31739_20500_1300_WRF065_4_M10']</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[0, 2]</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>31772_23100_1300_T01226|W2060_4_M10</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>29</v>
+      </c>
+      <c r="G38" t="n">
+        <v>29</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[0, 29.0]</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>29</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>32016_20706_1300_T02149|W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['32016_20500_1300_W2053|WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>49</v>
+      </c>
+      <c r="G39" t="n">
+        <v>49</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[0, 49.0]</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>49</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>32017_20706_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['32017_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>25</v>
+      </c>
+      <c r="G40" t="n">
+        <v>28</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[0, 25.0]</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>32018_20706_1300_T02149_4_M11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['32018_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>42</v>
+      </c>
+      <c r="G41" t="n">
+        <v>43</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[0, 42.0]</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>42</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['32019_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>62</v>
+      </c>
+      <c r="G42" t="n">
+        <v>62</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[0, 59.0]</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>59</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>32041_20500_1300_T0915_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['32041_12400_1300_T01576_4_M10']</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>120</v>
+      </c>
+      <c r="F43" t="n">
+        <v>15</v>
+      </c>
+      <c r="G43" t="n">
+        <v>135</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[0, 15.0]</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['32265_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="F44" t="n">
+        <v>56</v>
+      </c>
+      <c r="G44" t="n">
+        <v>60</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[0, 37.0]</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>37</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['32267_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>56</v>
+      </c>
+      <c r="G45" t="n">
+        <v>56</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[0, 46.0]</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>46</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>32363_20706_1300_W1817_4_M11</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['32363_20500_1300_WRF065_4_M11']</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>64</v>
+      </c>
+      <c r="G46" t="n">
+        <v>66</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[0, 55.0]</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>55</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>32413_23311_1300_T0915_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['32413_12400_1300_T01288|T01715_4_M10']</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>120</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15</v>
+      </c>
+      <c r="G47" t="n">
+        <v>135</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[0, 15.0]</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>32453_23311_1300_T0915|T02098_4_M10_AGING</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['32453_12400_1300_T02244_4_M10']</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>120</v>
+      </c>
+      <c r="F48" t="n">
+        <v>21</v>
+      </c>
+      <c r="G48" t="n">
+        <v>141</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[0, 21.0]</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>21</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>32470_23311_1300_T0915_4_M11_AGING</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['32470_12400_1300_T01521_4_M11']</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>120</v>
+      </c>
+      <c r="F49" t="n">
+        <v>54</v>
+      </c>
+      <c r="G49" t="n">
+        <v>174</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[0, 54.0]</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>54</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>32556_23100_1300_T01226_4_M10</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>48</v>
-      </c>
-      <c r="F5" t="n">
-        <v>102</v>
-      </c>
-      <c r="G5" t="n">
-        <v>150</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[0, 102]</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>102</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>33</v>
+      </c>
+      <c r="G50" t="n">
+        <v>34</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[0, 31.0]</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>32571_23316_1300_T01640_4_M3</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['32571_20500_1300_T01514_4_M3']</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[0, 1]</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>30234_20702_1300_T02150_4_M10</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['30234_20906_1300_None_4_M10']</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>18</v>
+      </c>
+      <c r="G52" t="n">
+        <v>19</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[0, 11.0]</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['30260_20906_1300_None_4_M10']</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>19</v>
+      </c>
+      <c r="G53" t="n">
+        <v>20</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[0, 14.0]</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>31600_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['31600_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>49</v>
+      </c>
+      <c r="G54" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[0, 40.0]</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>40</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>31602_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['31602_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>50</v>
+      </c>
+      <c r="G55" t="n">
+        <v>52</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[0, 47.0]</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>47</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>31704_12400_1300_T01288|T01715_4_M10</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>136</v>
+      </c>
+      <c r="G56" t="n">
+        <v>137</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[0, 136.0]</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>136</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>31722_12400_1300_T01716|T01362_4_M10</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>145</v>
+      </c>
+      <c r="G57" t="n">
+        <v>145</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[0, 145.0]</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>145</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>31739_20500_1300_WRF065_4_M10</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['31739_20906_1300_None_4_M10']</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[0, 3]</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['32016_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>49</v>
+      </c>
+      <c r="G59" t="n">
+        <v>49</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[0, 49.0]</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>49</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>32017_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['32017_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>30</v>
+      </c>
+      <c r="G60" t="n">
+        <v>35</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[0, 28.0]</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>32018_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['32018_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>73</v>
+      </c>
+      <c r="G61" t="n">
+        <v>74</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[0, 43.0]</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>43</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>32019_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['32019_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>62</v>
+      </c>
+      <c r="G62" t="n">
+        <v>62</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[0, 62.0]</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>62</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>32041_12400_1300_T01576_4_M10</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>135</v>
+      </c>
+      <c r="G63" t="n">
+        <v>135</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[0, 135.0]</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>135</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>32265_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['32265_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>68</v>
+      </c>
+      <c r="G64" t="n">
+        <v>73</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[0, 60.0]</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>60</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>32267_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['32267_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>56</v>
+      </c>
+      <c r="G65" t="n">
+        <v>56</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[0, 56.0]</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>56</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>32363_20500_1300_WRF065_4_M11</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['32363_20906_1300_None_4_M11']</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>74</v>
+      </c>
+      <c r="G66" t="n">
+        <v>77</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[0, 66.0]</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>66</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>32413_12400_1300_T01288|T01715_4_M10</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>135</v>
+      </c>
+      <c r="G67" t="n">
+        <v>135</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[0, 135.0]</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>135</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>32453_12400_1300_T02244_4_M10</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>141</v>
+      </c>
+      <c r="G68" t="n">
+        <v>143</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[0, 141.0]</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>141</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>32470_12400_1300_T01521_4_M11</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>174</v>
+      </c>
+      <c r="G69" t="n">
+        <v>175</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[0, 174.0]</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>174</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>32571_20500_1300_T01514_4_M3</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['32571_20500_1300_T01514_4_M3_AGING']</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>10</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[0, 6.0]</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>30234_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>19</v>
+      </c>
+      <c r="G71" t="n">
+        <v>21</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[0, 19.0]</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>19</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>30260_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>21</v>
+      </c>
+      <c r="G72" t="n">
+        <v>22</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[0, 20.0]</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>20</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>31600_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>50</v>
+      </c>
+      <c r="G73" t="n">
+        <v>52</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[0, 50.0]</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>50</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>31602_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>52</v>
+      </c>
+      <c r="G74" t="n">
+        <v>54</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[0, 52.0]</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>52</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>31739_20906_1300_None_4_M10</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[0, 6.0]</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>32016_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>49</v>
+      </c>
+      <c r="G76" t="n">
+        <v>49</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[0, 49.0]</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>49</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>32017_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>35</v>
+      </c>
+      <c r="G77" t="n">
+        <v>42</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[0, 35.0]</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>35</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>32018_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>81</v>
+      </c>
+      <c r="G78" t="n">
+        <v>82</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[0, 74.0]</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>74</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>32019_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>62</v>
+      </c>
+      <c r="G79" t="n">
+        <v>62</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[0, 62.0]</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>62</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>32265_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>73</v>
+      </c>
+      <c r="G80" t="n">
+        <v>81</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[0, 73.0]</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>73</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>32267_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>56</v>
+      </c>
+      <c r="G81" t="n">
+        <v>56</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[0, 56.0]</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>56</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>32363_20906_1300_None_4_M11</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>4</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>82</v>
+      </c>
+      <c r="G82" t="n">
+        <v>86</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[0, 77.0]</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>77</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>32571_20500_1300_T01514_4_M3_AGING</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>['32571_12400_1300_T01713_4_M3']</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>120</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="n">
+        <v>131</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[0, 11.0]</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>11</v>
+      </c>
+      <c r="J83" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>32571_12400_1300_T01713_4_M3</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>131</v>
+      </c>
+      <c r="G84" t="n">
+        <v>132</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[0, 131.0]</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>131</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25296_20300_1300_T02668_4_M11</t>
+          <t>25296_1300_4_M11_20300_T02668</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -496,7 +496,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['25296_20700_1300_None_4_M11']</t>
+          <t>['25296_1300_4_M11_20700_None']</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>25441_20300_1300_T02606_4_M11</t>
+          <t>25441_1300_4_M11_20300_T02606</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -536,7 +536,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['25441_20700_1300_T0873_4_M11']</t>
+          <t>['25441_1300_4_M11_20700_T0873']</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -546,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>26300_20300_1300_T02624_4_M11</t>
+          <t>26300_1300_4_M11_20300_T02624</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['26300_20700_1300_T02149_4_M11']</t>
+          <t>['26300_1300_4_M11_20700_T02149']</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G4" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27870_20300_1300_T02670_4_M11</t>
+          <t>27870_1300_4_M11_20300_T02670</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['27870_20700_1300_None_4_M11']</t>
+          <t>['27870_1300_4_M11_20700_None']</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30234_20902_1300_T02560_4_M10</t>
+          <t>30234_1300_4_M10_20902_T02560</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -656,7 +656,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['30234_20500_1300_W2010_4_M10']</t>
+          <t>['30234_1300_4_M10_20500_W2010']</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -688,7 +688,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30260_20902_1300_T02089_4_M10</t>
+          <t>30260_1300_4_M10_20902_T02089</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['30260_20500_1300_WRF065|W2010_4_M10']</t>
+          <t>['30260_1300_4_M10_20500_WRF065|W2010']</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -728,7 +728,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>31600_20902_1300_T02295_4_M11</t>
+          <t>31600_1300_4_M11_20902_T02295</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['31600_20705_1300_W2027|W1912_4_M11']</t>
+          <t>['31600_1300_4_M11_20705_W2027|W1912']</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -746,10 +746,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
+        <v>37</v>
+      </c>
+      <c r="G8" t="n">
         <v>38</v>
-      </c>
-      <c r="G8" t="n">
-        <v>39</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>31602_20902_1300_T02390|T02293_4_M11</t>
+          <t>31602_1300_4_M11_20902_T02390|T02293</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -776,7 +776,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['31602_20705_1300_W2027|W1912_4_M11']</t>
+          <t>['31602_1300_4_M11_20705_W2027|W1912']</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -786,10 +786,10 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31704_23311_1300_T01521|T0915_4_M10</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -816,7 +816,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['31704_23311_1300_T01521|T0915_4_M10_AGING']</t>
+          <t>['31704_1300_4_M10_23311_T01521|T0915_AGING']</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -848,7 +848,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31722_23311_1300_T0915|T01362_4_M10</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -856,7 +856,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['31722_23311_1300_T0915|T01362_4_M10_AGING']</t>
+          <t>['31722_1300_4_M10_23311_T0915|T01362_AGING']</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>31739_20902_1300_T02600|W2032_4_M10</t>
+          <t>31739_1300_4_M10_20902_T02600|W2032</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -896,7 +896,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['31739_20702_1300_T02150|W1818_4_M10']</t>
+          <t>['31739_1300_4_M10_20702_T02150|W1818']</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -928,7 +928,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31772_20710_1300_T01020_4_M10</t>
+          <t>31772_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -936,7 +936,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['31772_23100_1300_T01226|W2060_4_M10']</t>
+          <t>['31772_1300_4_M10_23100_T01226|W2060']</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>32016_20902_1300_W2039|T02496_4_M11</t>
+          <t>32016_1300_4_M11_20902_W2039|T02496</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -976,7 +976,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['32016_20706_1300_T02149|W1817_4_M11']</t>
+          <t>['32016_1300_4_M11_20706_T02149|W1817']</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1001,14 +1001,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>32017_20902_1300_T02319_4_M11</t>
+          <t>32017_1300_4_M11_20902_T02319</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['32017_20706_1300_None_4_M11']</t>
+          <t>['32017_1300_4_M11_20706_None']</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1026,10 +1026,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>32018_20902_1300_T02507|T02320_4_M11</t>
+          <t>32018_1300_4_M11_20902_T02507|T02320</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['32018_20706_1300_T02149_4_M11']</t>
+          <t>['32018_1300_4_M11_20706_T02149']</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>32019_20902_1300_T02508|T02321_4_M11</t>
+          <t>32019_1300_4_M11_20902_T02508|T02321</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['32019_20706_1300_T02149|W1817_4_M11']</t>
+          <t>['32019_1300_4_M11_20706_T02149|W1817']</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G17" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>32041_20500_1300_T0915_4_M10</t>
+          <t>32041_1300_4_M10_20500_T0915</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['32041_20500_1300_T0915_4_M10_AGING']</t>
+          <t>['32041_1300_4_M10_20500_T0915_AGING']</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1168,7 +1168,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>32265_20902_1300_W2082|T02498_4_M11</t>
+          <t>32265_1300_4_M11_20902_W2082|T02498</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1176,20 +1176,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['32265_20702_1300_T02150|W1818_4_M11']</t>
+          <t>['32265_1300_4_M11_20702_T02150|W1818']</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G19" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>32267_20902_1300_t02604|W2051_4_M11</t>
+          <t>32267_1300_4_M11_20902_t02604|W2051</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['32267_20702_1300_T02150|W1818_4_M11']</t>
+          <t>['32267_1300_4_M11_20702_T02150|W1818']</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>32363_20902_1300_T02619|T02326_4_M11</t>
+          <t>32363_1300_4_M11_20902_T02619|T02326</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['32363_20706_1300_W1817_4_M11']</t>
+          <t>['32363_1300_4_M11_20706_W1817']</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1266,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>32413_23311_1300_T0915_4_M10</t>
+          <t>32413_1300_4_M10_23311_T0915</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['32413_23311_1300_T0915_4_M10_AGING']</t>
+          <t>['32413_1300_4_M10_23311_T0915_AGING']</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1328,7 +1328,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>32453_23311_1300_T0915|T02098_4_M10</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1336,20 +1336,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['32453_23311_1300_T0915|T02098_4_M10_AGING']</t>
+          <t>['32453_1300_4_M10_23311_T0915|T02098_AGING']</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>32470_23311_1300_T0915_4_M11</t>
+          <t>32470_1300_4_M11_23311_T0915</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['32470_23311_1300_T0915_4_M11_AGING']</t>
+          <t>['32470_1300_4_M11_23311_T0915_AGING']</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G24" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>32556_20710_1300_T01020_4_M10</t>
+          <t>32556_1300_4_M10_20710_T01020</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['32556_23100_1300_T01226_4_M10']</t>
+          <t>['32556_1300_4_M10_23100_T01226']</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1426,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>32571_23312_1300_T01639_4_M3</t>
+          <t>32571_1300_4_M3_23312_T01639</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['32571_23316_1300_T01640_4_M3']</t>
+          <t>['32571_1300_4_M3_23316_T01640']</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -1488,7 +1488,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>25296_20700_1300_None_4_M11</t>
+          <t>25296_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['25296_1300_4_M11_20700_None_AGING']</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1506,18 +1506,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G27" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0, 63.0]</t>
+          <t>[0, 67.0]</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25441_20700_1300_T0873_4_M11</t>
+          <t>25441_1300_4_M11_20700_T0873</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1546,18 +1546,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G28" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0, 71.0]</t>
+          <t>[0, 55.0]</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26300_20700_1300_T02149_4_M11</t>
+          <t>26300_1300_4_M11_20700_T02149</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1586,18 +1586,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G29" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0, 67.0]</t>
+          <t>[0, 59.0]</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27870_20700_1300_None_4_M11</t>
+          <t>27870_1300_4_M11_20700_None</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1626,18 +1626,18 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G30" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0, 75.0]</t>
+          <t>[0, 63.0]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30234_20500_1300_W2010_4_M10</t>
+          <t>30234_1300_4_M10_20500_W2010</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['30234_20702_1300_T02150_4_M10']</t>
+          <t>['30234_1300_4_M10_20702_T02150']</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1666,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30260_20500_1300_WRF065|W2010_4_M10</t>
+          <t>30260_1300_4_M10_20500_WRF065|W2010</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['30260_20702_1300_T02150|W1818_4_M10']</t>
+          <t>['30260_1300_4_M10_20702_T02150|W1818']</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1728,7 +1728,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>31600_20705_1300_W2027|W1912_4_M11</t>
+          <t>31600_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['31600_20500_1300_WRF065_4_M11']</t>
+          <t>['31600_1300_4_M11_20500_WRF065']</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1746,18 +1746,18 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
+        <v>38</v>
+      </c>
+      <c r="G33" t="n">
         <v>39</v>
       </c>
-      <c r="G33" t="n">
-        <v>40</v>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0, 39.0]</t>
+          <t>[0, 38.0]</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31602_20705_1300_W2027|W1912_4_M11</t>
+          <t>31602_1300_4_M11_20705_W2027|W1912</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['31602_20500_1300_WRF065_4_M11']</t>
+          <t>['31602_1300_4_M11_20500_WRF065']</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1786,18 +1786,18 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0, 45.0]</t>
+          <t>[0, 44.0]</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>31704_23311_1300_T01521|T0915_4_M10_AGING</t>
+          <t>31704_1300_4_M10_23311_T01521|T0915_AGING</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['31704_12400_1300_T01288|T01715_4_M10']</t>
+          <t>['31704_1300_4_M10_12400_T01288|T01715']</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1846,7 +1846,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>31722_23311_1300_T0915|T01362_4_M10_AGING</t>
+          <t>31722_1300_4_M10_23311_T0915|T01362_AGING</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['31722_12400_1300_T01716|T01362_4_M10']</t>
+          <t>['31722_1300_4_M10_12400_T01716|T01362']</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1864,18 +1864,18 @@
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[0, 25.0]</t>
+          <t>[0, 24.0]</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J36" t="n">
         <v>-1</v>
@@ -1884,7 +1884,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>31739_20702_1300_T02150|W1818_4_M10</t>
+          <t>31739_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['31739_20500_1300_WRF065_4_M10']</t>
+          <t>['31739_1300_4_M10_20500_WRF065']</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1924,7 +1924,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>31772_23100_1300_T01226|W2060_4_M10</t>
+          <t>31772_1300_4_M10_23100_T01226|W2060</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1942,18 +1942,18 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0, 29.0]</t>
+          <t>[0, 28.0]</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>32016_20706_1300_T02149|W1817_4_M11</t>
+          <t>32016_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['32016_20500_1300_W2053|WRF065_4_M11']</t>
+          <t>['32016_1300_4_M11_20500_W2053|WRF065']</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1982,18 +1982,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G39" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0, 49.0]</t>
+          <t>[0, 22.0]</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>32017_20706_1300_None_4_M11</t>
+          <t>32017_1300_4_M11_20706_None</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['32017_20500_1300_WRF065_4_M11']</t>
+          <t>['32017_1300_4_M11_20500_WRF065']</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2022,18 +2022,18 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G40" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0, 25.0]</t>
+          <t>[0, 51.0]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>32018_20706_1300_T02149_4_M11</t>
+          <t>32018_1300_4_M11_20706_T02149</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['32018_20500_1300_WRF065_4_M11']</t>
+          <t>['32018_1300_4_M11_20500_WRF065']</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2062,18 +2062,18 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G41" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0, 42.0]</t>
+          <t>[0, 18.0]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32019_20706_1300_T02149|W1817_4_M11</t>
+          <t>32019_1300_4_M11_20706_T02149|W1817</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['32019_20500_1300_WRF065_4_M11']</t>
+          <t>['32019_1300_4_M11_20500_WRF065']</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -2102,18 +2102,18 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="G42" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0, 59.0]</t>
+          <t>[0, 39.0]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>32041_20500_1300_T0915_4_M10_AGING</t>
+          <t>32041_1300_4_M10_20500_T0915_AGING</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['32041_12400_1300_T01576_4_M10']</t>
+          <t>['32041_1300_4_M10_12400_T01576']</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -2162,7 +2162,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>32265_20702_1300_T02150|W1818_4_M11</t>
+          <t>32265_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['32265_20500_1300_WRF065_4_M11']</t>
+          <t>['32265_1300_4_M11_20500_WRF065']</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -2180,18 +2180,18 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G44" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0, 37.0]</t>
+          <t>[0, 54.0]</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>32267_20702_1300_T02150|W1818_4_M11</t>
+          <t>32267_1300_4_M11_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['32267_20500_1300_WRF065_4_M11']</t>
+          <t>['32267_1300_4_M11_20500_WRF065']</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2220,18 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G45" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0, 46.0]</t>
+          <t>[0, 26.0]</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>32363_20706_1300_W1817_4_M11</t>
+          <t>32363_1300_4_M11_20706_W1817</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['32363_20500_1300_WRF065_4_M11']</t>
+          <t>['32363_1300_4_M11_20500_WRF065']</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2260,18 +2260,18 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="G46" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0, 55.0]</t>
+          <t>[0, 35.0]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>32413_23311_1300_T0915_4_M10_AGING</t>
+          <t>32413_1300_4_M10_23311_T0915_AGING</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['32413_12400_1300_T01288|T01715_4_M10']</t>
+          <t>['32413_1300_4_M10_12400_T01288|T01715']</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2320,7 +2320,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>32453_23311_1300_T0915|T02098_4_M10_AGING</t>
+          <t>32453_1300_4_M10_23311_T0915|T02098_AGING</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['32453_12400_1300_T02244_4_M10']</t>
+          <t>['32453_1300_4_M10_12400_T02244']</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2338,18 +2338,18 @@
         <v>120</v>
       </c>
       <c r="F48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0, 21.0]</t>
+          <t>[0, 20.0]</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J48" t="n">
         <v>-1</v>
@@ -2358,7 +2358,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>32470_23311_1300_T0915_4_M11_AGING</t>
+          <t>32470_1300_4_M11_23311_T0915_AGING</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['32470_12400_1300_T01521_4_M11']</t>
+          <t>['32470_1300_4_M11_12400_T01521']</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2376,18 +2376,18 @@
         <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G49" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0, 54.0]</t>
+          <t>[0, 61.0]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J49" t="n">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>32556_23100_1300_T01226_4_M10</t>
+          <t>32556_1300_4_M10_23100_T01226</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2414,18 +2414,18 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
+        <v>32</v>
+      </c>
+      <c r="G50" t="n">
         <v>33</v>
       </c>
-      <c r="G50" t="n">
-        <v>34</v>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0, 31.0]</t>
+          <t>[0, 30.0]</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>32571_23316_1300_T01640_4_M3</t>
+          <t>32571_1300_4_M3_23316_T01640</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['32571_20500_1300_T01514_4_M3']</t>
+          <t>['32571_1300_4_M3_20500_T01514']</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2476,7 +2476,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30234_20702_1300_T02150_4_M10</t>
+          <t>25296_1300_4_M11_20700_None_AGING</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2484,39 +2484,37 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['30234_20906_1300_None_4_M10']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F52" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="G52" t="n">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0, 11.0]</t>
+          <t>[0, 87.0]</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
+        <v>87</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30260_20702_1300_T02150|W1818_4_M10</t>
+          <t>30234_1300_4_M10_20702_T02150</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2524,7 +2522,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['30260_20906_1300_None_4_M10']</t>
+          <t>['30234_1300_4_M10_20906_None']</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2534,18 +2532,18 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
+        <v>18</v>
+      </c>
+      <c r="G53" t="n">
         <v>19</v>
       </c>
-      <c r="G53" t="n">
-        <v>20</v>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[0, 14.0]</t>
+          <t>[0, 12.0]</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2556,7 +2554,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>31600_20500_1300_WRF065_4_M11</t>
+          <t>30260_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2564,7 +2562,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['31600_20906_1300_None_4_M11']</t>
+          <t>['30260_1300_4_M10_20906_None']</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2574,18 +2572,18 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G54" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[0, 40.0]</t>
+          <t>[0, 14.0]</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2596,7 +2594,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>31602_20500_1300_WRF065_4_M11</t>
+          <t>31600_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2604,28 +2602,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['31602_20906_1300_None_4_M11']</t>
+          <t>['31600_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G55" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0, 47.0]</t>
+          <t>[0, 39.0]</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2636,7 +2634,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>31704_12400_1300_T01288|T01715_4_M10</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2644,39 +2642,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31602_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="G56" t="n">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0, 136.0]</t>
+          <t>[0, 46.0]</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2270</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>31722_12400_1300_T01716|T01362_4_M10</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2691,21 +2689,21 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G57" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[0, 145.0]</t>
+          <t>[0, 136.0]</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2716,7 +2714,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>31739_20500_1300_WRF065_4_M10</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2724,39 +2722,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['31739_20906_1300_None_4_M10']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
+          <t>[0, 144.0]</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>32016_20500_1300_W2053|WRF065_4_M11</t>
+          <t>31739_1300_4_M10_20500_WRF065</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2764,28 +2762,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['32016_20906_1300_None_4_M11']</t>
+          <t>['31739_1300_4_M10_20906_None']</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0, 49.0]</t>
+          <t>[0, 3]</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2796,7 +2794,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32017_20500_1300_WRF065_4_M11</t>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2804,28 +2802,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['32017_20906_1300_None_4_M11']</t>
+          <t>['32016_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G60" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0, 28.0]</t>
+          <t>[0, 22.0]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2836,7 +2834,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>32018_20500_1300_WRF065_4_M11</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2844,28 +2842,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['32018_20906_1300_None_4_M11']</t>
+          <t>['32017_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F61" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G61" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0, 43.0]</t>
+          <t>[0, 58.0]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2876,7 +2874,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>32019_20500_1300_WRF065_4_M11</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2884,28 +2882,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['32019_20906_1300_None_4_M11']</t>
+          <t>['32018_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0, 62.0]</t>
+          <t>[0, 23.0]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2916,7 +2914,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>32041_12400_1300_T01576_4_M10</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2924,7 +2922,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32019_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2934,29 +2932,29 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="G63" t="n">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0, 135.0]</t>
+          <t>[0, 41.0]</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2270</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>32265_20500_1300_WRF065_4_M11</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2964,39 +2962,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['32265_20906_1300_None_4_M11']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="G64" t="n">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0, 60.0]</t>
+          <t>[0, 135.0]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2010</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>32267_20500_1300_WRF065_4_M11</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3004,28 +3002,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['32267_20906_1300_None_4_M11']</t>
+          <t>['32265_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="G65" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0, 56.0]</t>
+          <t>[0, 76.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3036,7 +3034,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>32363_20500_1300_WRF065_4_M11</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3044,28 +3042,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['32363_20906_1300_None_4_M11']</t>
+          <t>['32267_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G66" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0, 66.0]</t>
+          <t>[0, 30.0]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3076,7 +3074,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>32413_12400_1300_T01288|T01715_4_M10</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3084,39 +3082,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32363_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="G67" t="n">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0, 135.0]</t>
+          <t>[0, 37.0]</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2270</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>32453_12400_1300_T02244_4_M10</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3131,21 +3129,21 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G68" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[0, 141.0]</t>
+          <t>[0, 135.0]</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3156,7 +3154,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>32470_12400_1300_T01521_4_M11</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3174,18 +3172,18 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="G69" t="n">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0, 174.0]</t>
+          <t>[0, 140.0]</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3196,7 +3194,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>32571_20500_1300_T01514_4_M3</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3204,7 +3202,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['32571_20500_1300_T01514_4_M3_AGING']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -3214,18 +3212,18 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="G70" t="n">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0, 6.0]</t>
+          <t>[0, 181.0]</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3236,47 +3234,47 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30234_20906_1300_None_4_M10</t>
+          <t>32571_1300_4_M3_20500_T01514</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32571_1300_4_M3_20500_T01514_AGING']</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[0, 19.0]</t>
+          <t>[0, 6.0]</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>C2250</t>
+          <t>C2010</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30260_20906_1300_None_4_M10</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3291,21 +3289,21 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
+        <v>19</v>
+      </c>
+      <c r="G72" t="n">
         <v>21</v>
       </c>
-      <c r="G72" t="n">
-        <v>22</v>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0, 20.0]</t>
+          <t>[0, 19.0]</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3316,7 +3314,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>31600_20906_1300_None_4_M11</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3331,21 +3329,21 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G73" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0, 50.0]</t>
+          <t>[0, 20.0]</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3356,7 +3354,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>31602_20906_1300_None_4_M11</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3374,18 +3372,18 @@
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G74" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0, 52.0]</t>
+          <t>[0, 49.0]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3396,7 +3394,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>31739_20906_1300_None_4_M10</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3414,18 +3412,18 @@
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0, 6.0]</t>
+          <t>[0, 51.0]</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3436,7 +3434,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>32016_20906_1300_None_4_M11</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3451,21 +3449,21 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G76" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0, 49.0]</t>
+          <t>[0, 7.0]</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3476,7 +3474,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>32017_20906_1300_None_4_M11</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3491,21 +3489,21 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G77" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 35.0]</t>
+          <t>[0, 22.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3516,7 +3514,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>32018_20906_1300_None_4_M11</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3531,21 +3529,21 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G78" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 74.0]</t>
+          <t>[0, 68.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3556,7 +3554,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>32019_20906_1300_None_4_M11</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3571,21 +3569,21 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G79" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0, 62.0]</t>
+          <t>[0, 26.0]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3596,7 +3594,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>32265_20906_1300_None_4_M11</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3611,21 +3609,21 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G80" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0, 73.0]</t>
+          <t>[0, 41.0]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3636,7 +3634,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>32267_20906_1300_None_4_M11</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3651,21 +3649,21 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G81" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0, 56.0]</t>
+          <t>[0, 83.0]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3676,7 +3674,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>32363_20906_1300_None_4_M11</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3691,21 +3689,21 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0, 77.0]</t>
+          <t>[0, 30.0]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3716,7 +3714,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>32571_20500_1300_T01514_4_M3_AGING</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3724,68 +3722,108 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['32571_12400_1300_T01713_4_M3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G83" t="n">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0, 11.0]</t>
+          <t>[0, 63.0]</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>11</v>
-      </c>
-      <c r="J83" t="n">
-        <v>-1</v>
+        <v>63</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>32571_12400_1300_T01713_4_M3</t>
+          <t>32571_1300_4_M3_20500_T01514_AGING</t>
         </is>
       </c>
       <c r="B84" t="n">
+        <v>4</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>['32571_1300_4_M3_12400_T01713']</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>120</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="n">
+        <v>131</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[0, 11.0]</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>11</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>32571_1300_4_M3_12400_T01713</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
         <v>5</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
         <v>131</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G85" t="n">
         <v>132</v>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>[0, 131.0]</t>
         </is>
       </c>
-      <c r="I84" t="n">
+      <c r="I85" t="n">
         <v>131</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>C2010</t>
         </is>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -746,10 +746,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
     </row>
@@ -1026,10 +1026,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G17" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G20" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1266,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1506,18 +1506,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G27" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0, 67.0]</t>
+          <t>[0, 17.0]</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1546,18 +1546,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0, 55.0]</t>
+          <t>[0, 21.0]</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1586,18 +1586,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0, 59.0]</t>
+          <t>[0, 25.0]</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1626,18 +1626,18 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0, 63.0]</t>
+          <t>[0, 29.0]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1746,18 +1746,18 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0, 38.0]</t>
+          <t>[0, 43.0]</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1786,18 +1786,18 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G34" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0, 44.0]</t>
+          <t>[0, 36.0]</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1982,18 +1982,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G39" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0, 22.0]</t>
+          <t>[0, 47.0]</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2022,18 +2022,18 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="G40" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0, 51.0]</t>
+          <t>[0, 82.0]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2062,18 +2062,18 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G41" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0, 18.0]</t>
+          <t>[0, 41.0]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2102,18 +2102,18 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G42" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0, 39.0]</t>
+          <t>[0, 57.0]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2180,18 +2180,18 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G44" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0, 54.0]</t>
+          <t>[0, 53.0]</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2220,18 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G45" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0, 26.0]</t>
+          <t>[0, 61.0]</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2260,18 +2260,18 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G46" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0, 35.0]</t>
+          <t>[0, 70.0]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2376,18 +2376,18 @@
         <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G49" t="n">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0, 61.0]</t>
+          <t>[0, 38.0]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="J49" t="n">
         <v>-1</v>
@@ -2494,18 +2494,18 @@
         <v>200</v>
       </c>
       <c r="F52" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="G52" t="n">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0, 87.0]</t>
+          <t>[0, 18.0]</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="J52" t="n">
         <v>-1</v>
@@ -2532,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G53" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2572,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
+        <v>18</v>
+      </c>
+      <c r="G54" t="n">
         <v>19</v>
-      </c>
-      <c r="G54" t="n">
-        <v>20</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2612,18 +2612,18 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="G55" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0, 39.0]</t>
+          <t>[0, 64.0]</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2652,18 +2652,18 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G56" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0, 46.0]</t>
+          <t>[0, 38.0]</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2812,18 +2812,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G60" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0, 22.0]</t>
+          <t>[0, 51.0]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2852,18 +2852,18 @@
         <v>5</v>
       </c>
       <c r="F61" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G61" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0, 58.0]</t>
+          <t>[0, 85.0]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2892,18 +2892,18 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G62" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0, 23.0]</t>
+          <t>[0, 42.0]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2932,18 +2932,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G63" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0, 41.0]</t>
+          <t>[0, 57.0]</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3012,18 +3012,18 @@
         <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G65" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0, 76.0]</t>
+          <t>[0, 57.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3052,18 +3052,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G66" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0, 30.0]</t>
+          <t>[0, 61.0]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3092,18 +3092,18 @@
         <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G67" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0, 37.0]</t>
+          <t>[0, 72.0]</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3212,18 +3212,18 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G70" t="n">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0, 181.0]</t>
+          <t>[0, 158.0]</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3292,18 +3292,18 @@
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0, 19.0]</t>
+          <t>[0, 20.0]</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3332,18 +3332,18 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0, 20.0]</t>
+          <t>[0, 19.0]</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3372,18 +3372,18 @@
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G74" t="n">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0, 49.0]</t>
+          <t>[0, 82.0]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3412,18 +3412,18 @@
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G75" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0, 51.0]</t>
+          <t>[0, 46.0]</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3492,18 +3492,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G77" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 22.0]</t>
+          <t>[0, 51.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3532,18 +3532,18 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G78" t="n">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 68.0]</t>
+          <t>[0, 92.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3572,18 +3572,18 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G79" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0, 26.0]</t>
+          <t>[0, 47.0]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3612,18 +3612,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G80" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0, 41.0]</t>
+          <t>[0, 57.0]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3652,18 +3652,18 @@
         <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G81" t="n">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0, 83.0]</t>
+          <t>[0, 101.0]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3692,18 +3692,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G82" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0, 30.0]</t>
+          <t>[0, 61.0]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3732,18 +3732,18 @@
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G83" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0, 63.0]</t>
+          <t>[0, 77.0]</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
     </row>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
@@ -786,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G14" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
@@ -1026,10 +1026,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1186,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G20" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1266,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
+        <v>60</v>
+      </c>
+      <c r="G21" t="n">
         <v>65</v>
-      </c>
-      <c r="G21" t="n">
-        <v>70</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1506,18 +1506,18 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0, 17.0]</t>
+          <t>[0, 88.0]</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1546,18 +1546,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G28" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0, 21.0]</t>
+          <t>[0, 37.0]</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1586,18 +1586,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G29" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0, 25.0]</t>
+          <t>[0, 80.0]</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1626,18 +1626,18 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="G30" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0, 29.0]</t>
+          <t>[0, 84.0]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1746,18 +1746,18 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="G33" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0, 43.0]</t>
+          <t>[0, 19.0]</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1786,18 +1786,18 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G34" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0, 36.0]</t>
+          <t>[0, 76.0]</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1982,18 +1982,18 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G39" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0, 47.0]</t>
+          <t>[0, 69.0]</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2022,18 +2022,18 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="G40" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0, 82.0]</t>
+          <t>[0, 31.0]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2062,18 +2062,18 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G41" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0, 41.0]</t>
+          <t>[0, 36.0]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2102,18 +2102,18 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G42" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0, 57.0]</t>
+          <t>[0, 40.0]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2180,18 +2180,18 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0, 53.0]</t>
+          <t>[0, 52.0]</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2220,18 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G45" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0, 61.0]</t>
+          <t>[0, 56.0]</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2260,18 +2260,18 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G46" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0, 70.0]</t>
+          <t>[0, 65.0]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2376,18 +2376,18 @@
         <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G49" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0, 38.0]</t>
+          <t>[0, 42.0]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J49" t="n">
         <v>-1</v>
@@ -2494,18 +2494,18 @@
         <v>200</v>
       </c>
       <c r="F52" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G52" t="n">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0, 18.0]</t>
+          <t>[0, 88.0]</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="J52" t="n">
         <v>-1</v>
@@ -2532,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
+        <v>18</v>
+      </c>
+      <c r="G53" t="n">
         <v>19</v>
-      </c>
-      <c r="G53" t="n">
-        <v>20</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2572,10 +2572,10 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2612,18 +2612,18 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G55" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0, 64.0]</t>
+          <t>[0, 23.0]</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2652,18 +2652,18 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G56" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0, 38.0]</t>
+          <t>[0, 92.0]</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2692,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G57" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2812,18 +2812,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G60" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0, 51.0]</t>
+          <t>[0, 69.0]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2852,18 +2852,18 @@
         <v>5</v>
       </c>
       <c r="F61" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G61" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0, 85.0]</t>
+          <t>[0, 34.0]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2892,18 +2892,18 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G62" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0, 42.0]</t>
+          <t>[0, 37.0]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2932,18 +2932,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0, 57.0]</t>
+          <t>[0, 40.0]</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3012,18 +3012,18 @@
         <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G65" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0, 57.0]</t>
+          <t>[0, 56.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3052,18 +3052,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G66" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0, 61.0]</t>
+          <t>[0, 56.0]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3092,18 +3092,18 @@
         <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G67" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0, 72.0]</t>
+          <t>[0, 67.0]</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3212,18 +3212,18 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G70" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0, 158.0]</t>
+          <t>[0, 162.0]</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3292,18 +3292,18 @@
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G72" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0, 20.0]</t>
+          <t>[0, 19.0]</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3332,18 +3332,18 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G73" t="n">
+        <v>22</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[0, 20.0]</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>20</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>[0, 19.0]</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>19</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3372,18 +3372,18 @@
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G74" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0, 82.0]</t>
+          <t>[0, 26.0]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3412,18 +3412,18 @@
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G75" t="n">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0, 46.0]</t>
+          <t>[0, 96.0]</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3492,18 +3492,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G77" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 51.0]</t>
+          <t>[0, 69.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3532,18 +3532,18 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="G78" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 92.0]</t>
+          <t>[0, 47.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3572,18 +3572,18 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
+        <v>54</v>
+      </c>
+      <c r="G79" t="n">
+        <v>55</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[0, 48.0]</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>48</v>
-      </c>
-      <c r="G79" t="n">
-        <v>49</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>[0, 47.0]</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>47</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3612,18 +3612,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G80" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0, 57.0]</t>
+          <t>[0, 40.0]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3652,18 +3652,18 @@
         <v>8</v>
       </c>
       <c r="F81" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G81" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0, 101.0]</t>
+          <t>[0, 81.0]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3692,18 +3692,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G82" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0, 61.0]</t>
+          <t>[0, 58.0]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3732,18 +3732,18 @@
         <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G83" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0, 77.0]</t>
+          <t>[0, 72.0]</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,13 +503,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G5" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -662,15 +662,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -679,11 +673,7 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>C2260</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -702,15 +692,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -719,11 +703,7 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>C2260</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -742,15 +722,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -759,11 +733,7 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>C2260</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -782,15 +752,9 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>73</v>
-      </c>
-      <c r="G9" t="n">
-        <v>76</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -799,11 +763,7 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>C2260</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -822,15 +782,9 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>15</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -839,11 +793,7 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -862,15 +812,9 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24</v>
-      </c>
-      <c r="G11" t="n">
-        <v>24</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -879,11 +823,7 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -902,15 +842,9 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -919,11 +853,7 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>C2260</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -942,15 +872,9 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>28</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -959,11 +883,7 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -982,15 +902,9 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>69</v>
-      </c>
-      <c r="G14" t="n">
-        <v>69</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -999,11 +913,7 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>C2260</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1026,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1066,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1103,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1142,15 +1052,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1159,11 +1063,7 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1186,10 +1086,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G19" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1223,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1266,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G21" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1302,15 +1202,9 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>15</v>
-      </c>
-      <c r="G22" t="n">
-        <v>15</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1319,11 +1213,7 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1342,15 +1232,9 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19</v>
-      </c>
-      <c r="G23" t="n">
-        <v>20</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1359,11 +1243,7 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1382,15 +1262,9 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>41</v>
-      </c>
-      <c r="G24" t="n">
-        <v>42</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1399,11 +1273,7 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1422,15 +1292,9 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>28</v>
-      </c>
-      <c r="G25" t="n">
-        <v>30</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1439,11 +1303,7 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1462,15 +1322,9 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1479,11 +1333,7 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1496,28 +1346,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['25296_1300_4_M11_20700_None_AGING']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G27" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0, 88.0]</t>
+          <t>[0, 47.0]</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1542,28 +1392,18 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>37</v>
-      </c>
-      <c r="G28" t="n">
-        <v>37</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0, 37.0]</t>
+          <t>[0, 52.0]</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1583,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G29" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0, 80.0]</t>
+          <t>[0, 57.0]</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1623,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G30" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0, 84.0]</t>
+          <t>[0, 62.0]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1660,30 +1500,18 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>11</v>
-      </c>
-      <c r="G31" t="n">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0, 8.0]</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1700,30 +1528,18 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>13</v>
-      </c>
-      <c r="G32" t="n">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0, 13.0]</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>13</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1740,30 +1556,18 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>22</v>
-      </c>
-      <c r="G33" t="n">
-        <v>23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0, 19.0]</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>19</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1780,30 +1584,18 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>90</v>
-      </c>
-      <c r="G34" t="n">
-        <v>92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0, 76.0]</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>76</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1820,28 +1612,18 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>120</v>
-      </c>
-      <c r="F35" t="n">
-        <v>16</v>
-      </c>
-      <c r="G35" t="n">
-        <v>136</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0, 16.0]</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>-1</v>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1858,28 +1640,18 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>120</v>
-      </c>
-      <c r="F36" t="n">
-        <v>24</v>
-      </c>
-      <c r="G36" t="n">
-        <v>144</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[0, 24.0]</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>-1</v>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1896,30 +1668,18 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[0, 2]</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1936,30 +1696,18 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>28</v>
-      </c>
-      <c r="G38" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0, 28.0]</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>28</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1976,30 +1724,18 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>69</v>
-      </c>
-      <c r="G39" t="n">
-        <v>69</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0, 69.0]</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>69</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2022,18 +1758,18 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0, 31.0]</t>
+          <t>[0, 8]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2062,18 +1798,18 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G41" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0, 36.0]</t>
+          <t>[0, 11.0]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2099,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0, 40.0]</t>
+          <t>[0, 14.0]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2136,28 +1872,18 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>120</v>
-      </c>
-      <c r="F43" t="n">
-        <v>15</v>
-      </c>
-      <c r="G43" t="n">
-        <v>135</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[0, 15.0]</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>15</v>
-      </c>
-      <c r="J43" t="n">
-        <v>-1</v>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2180,18 +1906,18 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0, 52.0]</t>
+          <t>[0, 24.0]</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2217,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G45" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0, 56.0]</t>
+          <t>[0, 27.0]</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2260,18 +1986,18 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G46" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0, 65.0]</t>
+          <t>[0, 34.0]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2294,28 +2020,18 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>120</v>
-      </c>
-      <c r="F47" t="n">
-        <v>15</v>
-      </c>
-      <c r="G47" t="n">
-        <v>135</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[0, 15.0]</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>-1</v>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2332,28 +2048,18 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>120</v>
-      </c>
-      <c r="F48" t="n">
-        <v>20</v>
-      </c>
-      <c r="G48" t="n">
-        <v>140</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0, 20.0]</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>20</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-1</v>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2370,28 +2076,18 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>120</v>
-      </c>
-      <c r="F49" t="n">
-        <v>42</v>
-      </c>
-      <c r="G49" t="n">
-        <v>162</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0, 42.0]</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>42</v>
-      </c>
-      <c r="J49" t="n">
-        <v>-1</v>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2408,30 +2104,18 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>32</v>
-      </c>
-      <c r="G50" t="n">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0, 30.0]</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>30</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2448,35 +2132,23 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" t="n">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[0, 1]</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>25296_1300_4_M11_20700_None_AGING</t>
+          <t>30234_1300_4_M10_20702_T02150</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2484,37 +2156,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['30234_1300_4_M10_20906_None']</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>200</v>
-      </c>
-      <c r="F52" t="n">
-        <v>88</v>
-      </c>
-      <c r="G52" t="n">
-        <v>288</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0, 88.0]</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>88</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-1</v>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20702_T02150</t>
+          <t>30260_1300_4_M10_20702_T02150|W1818</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2522,39 +2184,27 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['30234_1300_4_M10_20906_None']</t>
+          <t>['30260_1300_4_M10_20906_None']</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>18</v>
-      </c>
-      <c r="G53" t="n">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[0, 12.0]</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>12</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20702_T02150|W1818</t>
+          <t>31600_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2562,39 +2212,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['30260_1300_4_M10_20906_None']</t>
+          <t>['31600_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>19</v>
-      </c>
-      <c r="G54" t="n">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[0, 14.0]</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>14</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20500_WRF065</t>
+          <t>31602_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2602,39 +2240,27 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['31600_1300_4_M11_20906_None']</t>
+          <t>['31602_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>25</v>
-      </c>
-      <c r="G55" t="n">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0, 23.0]</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>23</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20500_WRF065</t>
+          <t>31704_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2642,39 +2268,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['31602_1300_4_M11_20906_None']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>94</v>
-      </c>
-      <c r="G56" t="n">
-        <v>96</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0, 92.0]</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>92</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>31704_1300_4_M10_12400_T01288|T01715</t>
+          <t>31722_1300_4_M10_12400_T01716|T01362</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2686,35 +2300,23 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>137</v>
-      </c>
-      <c r="G57" t="n">
-        <v>138</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[0, 136.0]</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>136</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>31722_1300_4_M10_12400_T01716|T01362</t>
+          <t>31739_1300_4_M10_20500_WRF065</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2722,39 +2324,27 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['31739_1300_4_M10_20906_None']</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>144</v>
-      </c>
-      <c r="G58" t="n">
-        <v>144</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[0, 144.0]</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>144</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20500_WRF065</t>
+          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2762,39 +2352,27 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['31739_1300_4_M10_20906_None']</t>
+          <t>['32016_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2</v>
-      </c>
-      <c r="F59" t="n">
-        <v>5</v>
-      </c>
-      <c r="G59" t="n">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20500_W2053|WRF065</t>
+          <t>32017_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2802,28 +2380,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['32016_1300_4_M11_20906_None']</t>
+          <t>['32017_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0, 69.0]</t>
+          <t>[0, 11]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2834,7 +2412,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20500_WRF065</t>
+          <t>32018_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2842,28 +2420,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['32017_1300_4_M11_20906_None']</t>
+          <t>['32018_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G61" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0, 34.0]</t>
+          <t>[0, 13.0]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2874,7 +2452,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20500_WRF065</t>
+          <t>32019_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2882,7 +2460,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['32018_1300_4_M11_20906_None']</t>
+          <t>['32019_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2892,18 +2470,18 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G62" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0, 37.0]</t>
+          <t>[0, 15.0]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2914,7 +2492,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20500_WRF065</t>
+          <t>32041_1300_4_M10_12400_T01576</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2922,39 +2500,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['32019_1300_4_M11_20906_None']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>40</v>
-      </c>
-      <c r="G63" t="n">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0, 40.0]</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>40</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>32041_1300_4_M10_12400_T01576</t>
+          <t>32265_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2962,39 +2528,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32265_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="G64" t="n">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0, 135.0]</t>
+          <t>[0, 29.0]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20500_WRF065</t>
+          <t>32267_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3002,39 +2568,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['32265_1300_4_M11_20906_None']</t>
+          <t>['32267_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="G65" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0, 56.0]</t>
+          <t>[0, 30.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20500_WRF065</t>
+          <t>32363_1300_4_M11_20500_WRF065</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3042,28 +2608,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['32267_1300_4_M11_20906_None']</t>
+          <t>['32363_1300_4_M11_20906_None']</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G66" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0, 56.0]</t>
+          <t>[0, 36.0]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3074,7 +2640,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20500_WRF065</t>
+          <t>32413_1300_4_M10_12400_T01288|T01715</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3082,39 +2648,27 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['32363_1300_4_M11_20906_None']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>3</v>
-      </c>
-      <c r="F67" t="n">
-        <v>69</v>
-      </c>
-      <c r="G67" t="n">
-        <v>72</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0, 67.0]</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>67</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>C2270</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>32413_1300_4_M10_12400_T01288|T01715</t>
+          <t>32453_1300_4_M10_12400_T02244</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3126,35 +2680,23 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>135</v>
-      </c>
-      <c r="G68" t="n">
-        <v>135</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[0, 135.0]</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>135</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>32453_1300_4_M10_12400_T02244</t>
+          <t>32470_1300_4_M11_12400_T01521</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3166,35 +2708,23 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>140</v>
-      </c>
-      <c r="G69" t="n">
-        <v>141</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0, 140.0]</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>140</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>32470_1300_4_M11_12400_T01521</t>
+          <t>32571_1300_4_M3_20500_T01514</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3202,79 +2732,55 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32571_1300_4_M3_20500_T01514_AGING']</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>162</v>
-      </c>
-      <c r="G70" t="n">
-        <v>163</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0, 162.0]</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>162</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_20500_T01514</t>
+          <t>30234_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['32571_1300_4_M3_20500_T01514_AGING']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="n">
-        <v>10</v>
-      </c>
-      <c r="G71" t="n">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[0, 6.0]</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30234_1300_4_M10_20906_None</t>
+          <t>30260_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3286,35 +2792,23 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2</v>
-      </c>
-      <c r="F72" t="n">
-        <v>19</v>
-      </c>
-      <c r="G72" t="n">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0, 19.0]</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>19</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>C2250</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30260_1300_4_M10_20906_None</t>
+          <t>31600_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3326,35 +2820,23 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="n">
-        <v>21</v>
-      </c>
-      <c r="G73" t="n">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0, 20.0]</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>20</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>C2250</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>31600_1300_4_M11_20906_None</t>
+          <t>31602_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3366,35 +2848,23 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>2</v>
-      </c>
-      <c r="F74" t="n">
-        <v>26</v>
-      </c>
-      <c r="G74" t="n">
-        <v>28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0, 26.0]</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>26</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>C2250</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>31602_1300_4_M11_20906_None</t>
+          <t>31739_1300_4_M10_20906_None</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3406,35 +2876,23 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>2</v>
-      </c>
-      <c r="F75" t="n">
-        <v>96</v>
-      </c>
-      <c r="G75" t="n">
-        <v>98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0, 96.0]</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>96</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>C2250</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>31739_1300_4_M10_20906_None</t>
+          <t>32016_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3446,35 +2904,23 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>2</v>
-      </c>
-      <c r="F76" t="n">
-        <v>7</v>
-      </c>
-      <c r="G76" t="n">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0, 7.0]</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>C2250</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>32016_1300_4_M11_20906_None</t>
+          <t>32017_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3489,21 +2935,21 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="G77" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 69.0]</t>
+          <t>[0, 21.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3514,7 +2960,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>32017_1300_4_M11_20906_None</t>
+          <t>32018_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3529,21 +2975,21 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G78" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 47.0]</t>
+          <t>[0, 23.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3554,7 +3000,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>32018_1300_4_M11_20906_None</t>
+          <t>32019_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3572,18 +3018,18 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G79" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0, 48.0]</t>
+          <t>[0, 22.0]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3594,7 +3040,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>32019_1300_4_M11_20906_None</t>
+          <t>32265_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3609,21 +3055,21 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G80" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0, 40.0]</t>
+          <t>[0, 41.0]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3634,7 +3080,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>32265_1300_4_M11_20906_None</t>
+          <t>32267_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3649,21 +3095,21 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G81" t="n">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0, 81.0]</t>
+          <t>[0, 42.0]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3674,7 +3120,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>32267_1300_4_M11_20906_None</t>
+          <t>32363_1300_4_M11_20906_None</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3689,21 +3135,21 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0, 58.0]</t>
+          <t>[0, 40.0]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3714,7 +3160,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>32363_1300_4_M11_20906_None</t>
+          <t>32571_1300_4_M3_20500_T01514_AGING</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3722,112 +3168,50 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32571_1300_4_M3_12400_T01713']</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>4</v>
-      </c>
-      <c r="F83" t="n">
-        <v>72</v>
-      </c>
-      <c r="G83" t="n">
-        <v>76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0, 72.0]</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>72</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>C2250</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>32571_1300_4_M3_20500_T01514_AGING</t>
+          <t>32571_1300_4_M3_12400_T01713</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['32571_1300_4_M3_12400_T01713']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>120</v>
-      </c>
-      <c r="F84" t="n">
-        <v>11</v>
-      </c>
-      <c r="G84" t="n">
-        <v>131</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[0, 11.0]</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>11</v>
-      </c>
-      <c r="J84" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>32571_1300_4_M3_12400_T01713</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>5</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>131</v>
-      </c>
-      <c r="G85" t="n">
-        <v>132</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>[0, 131.0]</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>131</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>C2010</t>
-        </is>
-      </c>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2010</t>
         </is>
       </c>
     </row>
@@ -586,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G5" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -662,9 +662,15 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -673,7 +679,11 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -692,9 +702,15 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -703,7 +719,11 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -722,9 +742,15 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -733,7 +759,11 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -752,9 +782,15 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -763,7 +799,11 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -782,9 +822,15 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -793,7 +839,11 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -812,9 +862,15 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -823,7 +879,11 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -842,9 +902,15 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -853,7 +919,11 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -872,9 +942,15 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>21</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -883,7 +959,11 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -902,9 +982,15 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21</v>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -913,7 +999,11 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>C2260</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -936,10 +1026,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -976,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1016,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1052,9 +1142,15 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1063,7 +1159,11 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1086,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1126,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G20" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1166,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1202,9 +1302,15 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>12</v>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1213,7 +1319,11 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1232,9 +1342,15 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13</v>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1243,7 +1359,11 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1262,9 +1382,15 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35</v>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1273,7 +1399,11 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1292,9 +1422,15 @@
       <c r="D25" t="n">
         <v>0</v>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18</v>
+      </c>
+      <c r="G25" t="n">
+        <v>20</v>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1303,7 +1439,11 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1322,9 +1462,15 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>[0]</t>
@@ -1333,7 +1479,11 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1356,18 +1506,18 @@
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0, 47.0]</t>
+          <t>[0, 80.0]</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1392,18 +1542,28 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>31</v>
+      </c>
+      <c r="G28" t="n">
+        <v>33</v>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0, 52.0]</t>
+          <t>[0, 29.0]</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>52</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1426,18 +1586,18 @@
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G29" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0, 57.0]</t>
+          <t>[0, 70.0]</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1466,18 +1626,18 @@
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G30" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0, 62.0]</t>
+          <t>[0, 75.0]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1500,18 +1660,30 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9</v>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>[0, 6.0]</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1528,18 +1700,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>[0, 9.0]</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1556,18 +1740,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16</v>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>[0, 13.0]</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>13</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1584,18 +1780,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18</v>
+      </c>
+      <c r="G34" t="n">
+        <v>20</v>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>[0, 18.0]</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>18</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1612,18 +1820,28 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>120</v>
+      </c>
+      <c r="F35" t="n">
+        <v>11</v>
+      </c>
+      <c r="G35" t="n">
+        <v>131</v>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+          <t>[0, 11.0]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1640,18 +1858,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>120</v>
+      </c>
+      <c r="F36" t="n">
+        <v>16</v>
+      </c>
+      <c r="G36" t="n">
+        <v>136</v>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>[0, 16.0]</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1668,18 +1896,30 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>[0, 2]</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1696,18 +1936,30 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>23</v>
+      </c>
+      <c r="G38" t="n">
+        <v>24</v>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+          <t>[0, 21.0]</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>21</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1724,18 +1976,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>26</v>
+      </c>
+      <c r="G39" t="n">
+        <v>27</v>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+          <t>[0, 21.0]</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>21</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1758,18 +2022,18 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G40" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0, 8]</t>
+          <t>[0, 31.0]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1798,18 +2062,18 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G41" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0, 11.0]</t>
+          <t>[0, 34.0]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1838,18 +2102,18 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G42" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0, 14.0]</t>
+          <t>[0, 37.0]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1872,18 +2136,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>120</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="n">
+        <v>130</v>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>[0, 10.0]</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1906,18 +2180,18 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G44" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0, 24.0]</t>
+          <t>[0, 47.0]</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -1946,18 +2220,18 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G45" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0, 27.0]</t>
+          <t>[0, 50.0]</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -1986,18 +2260,18 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G46" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0, 34.0]</t>
+          <t>[0, 57.0]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2020,18 +2294,28 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>120</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12</v>
+      </c>
+      <c r="G47" t="n">
+        <v>132</v>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>[0, 12.0]</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2048,18 +2332,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>120</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>133</v>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+          <t>[0, 13.0]</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>13</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2076,18 +2370,28 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>120</v>
+      </c>
+      <c r="F49" t="n">
+        <v>35</v>
+      </c>
+      <c r="G49" t="n">
+        <v>155</v>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+          <t>[0, 35.0]</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>35</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2104,18 +2408,30 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>22</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23</v>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+          <t>[0, 20.0]</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2132,18 +2448,30 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4</v>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+          <t>[0, 1]</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2160,18 +2488,30 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13</v>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+          <t>[0, 9.0]</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>9</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2188,18 +2528,30 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>13</v>
+      </c>
+      <c r="G53" t="n">
+        <v>14</v>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+          <t>[0, 10.0]</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2216,18 +2568,30 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>21</v>
+      </c>
+      <c r="G54" t="n">
+        <v>22</v>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+          <t>[0, 16.0]</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>16</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2244,18 +2608,30 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22</v>
+      </c>
+      <c r="G55" t="n">
+        <v>24</v>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+          <t>[0, 20.0]</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>20</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2272,18 +2648,30 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>135</v>
+      </c>
+      <c r="G56" t="n">
+        <v>136</v>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+          <t>[0, 131.0]</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>131</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2300,18 +2688,30 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>137</v>
+      </c>
+      <c r="G57" t="n">
+        <v>138</v>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+          <t>[0, 136.0]</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>136</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2328,18 +2728,30 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+          <t>[0, 3]</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2356,18 +2768,30 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28</v>
+      </c>
+      <c r="G59" t="n">
+        <v>29</v>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+          <t>[0, 27.0]</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>27</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>C2270</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2390,18 +2814,18 @@
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G60" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0, 11]</t>
+          <t>[0, 34.0]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2430,18 +2854,18 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G61" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0, 13.0]</t>
+          <t>[0, 35.0]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2470,18 +2894,18 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0, 15.0]</t>
+          <t>[0, 38.0]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2504,18 +2928,30 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>130</v>
+      </c>
+      <c r="G63" t="n">
+        <v>131</v>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>[0, 130.0]</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>130</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2538,18 +2974,18 @@
         <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G64" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0, 29.0]</t>
+          <t>[0, 52.0]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2578,18 +3014,18 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G65" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0, 30.0]</t>
+          <t>[0, 53.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2618,18 +3054,18 @@
         <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G66" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0, 36.0]</t>
+          <t>[0, 59.0]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2652,18 +3088,30 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>132</v>
+      </c>
+      <c r="G67" t="n">
+        <v>133</v>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+          <t>[0, 132.0]</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>132</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2680,18 +3128,30 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>133</v>
+      </c>
+      <c r="G68" t="n">
+        <v>134</v>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+          <t>[0, 133.0]</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>133</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2708,18 +3168,30 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>155</v>
+      </c>
+      <c r="G69" t="n">
+        <v>156</v>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+          <t>[0, 155.0]</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>155</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2736,18 +3208,30 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6</v>
+      </c>
+      <c r="G70" t="n">
+        <v>7</v>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+          <t>[0, 4.0]</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2764,18 +3248,30 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>13</v>
+      </c>
+      <c r="G71" t="n">
+        <v>15</v>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+          <t>[0, 13.0]</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>13</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2792,18 +3288,30 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15</v>
+      </c>
+      <c r="G72" t="n">
+        <v>16</v>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+          <t>[0, 14.0]</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>14</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2820,18 +3328,30 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>22</v>
+      </c>
+      <c r="G73" t="n">
+        <v>24</v>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+          <t>[0, 22.0]</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>22</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2848,18 +3368,30 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>24</v>
+      </c>
+      <c r="G74" t="n">
+        <v>26</v>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+          <t>[0, 24.0]</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>24</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2876,18 +3408,30 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>6</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8</v>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+          <t>[0, 6.0]</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2904,18 +3448,30 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>29</v>
+      </c>
+      <c r="G76" t="n">
+        <v>30</v>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+          <t>[0, 29.0]</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>29</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>C2250</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2938,18 +3494,18 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G77" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 21.0]</t>
+          <t>[0, 46.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -2978,18 +3534,18 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G78" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 23.0]</t>
+          <t>[0, 40.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3018,18 +3574,18 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G79" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0, 22.0]</t>
+          <t>[0, 41.0]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3058,18 +3614,18 @@
         <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G80" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0, 41.0]</t>
+          <t>[0, 64.0]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3098,18 +3654,18 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G81" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0, 42.0]</t>
+          <t>[0, 65.0]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3138,18 +3694,18 @@
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G82" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0, 40.0]</t>
+          <t>[0, 63.0]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3172,18 +3728,28 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>120</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7</v>
+      </c>
+      <c r="G83" t="n">
+        <v>127</v>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+          <t>[0, 7.0]</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3200,18 +3766,30 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>127</v>
+      </c>
+      <c r="G84" t="n">
+        <v>128</v>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[0]</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+          <t>[0, 127.0]</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>127</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>C2010</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C2010</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
@@ -586,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -826,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -866,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -946,10 +946,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1146,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1306,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1346,10 +1346,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G24" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1506,18 +1506,18 @@
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G27" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0, 80.0]</t>
+          <t>[0, 70.0]</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1546,18 +1546,18 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G28" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0, 29.0]</t>
+          <t>[0, 75.0]</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1586,18 +1586,18 @@
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G29" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0, 70.0]</t>
+          <t>[0, 80.0]</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1626,18 +1626,18 @@
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G30" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0, 75.0]</t>
+          <t>[0, 85.0]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1826,18 +1826,18 @@
         <v>120</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G35" t="n">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0, 11.0]</t>
+          <t>[0, 59.0]</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="J35" t="n">
         <v>-1</v>
@@ -1864,18 +1864,18 @@
         <v>120</v>
       </c>
       <c r="F36" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G36" t="n">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[0, 16.0]</t>
+          <t>[0, 64.0]</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J36" t="n">
         <v>-1</v>
@@ -1942,18 +1942,18 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0, 21.0]</t>
+          <t>[0, 69.0]</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2142,18 +2142,18 @@
         <v>120</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="G43" t="n">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>[0, 10.0]</t>
+          <t>[0, 58.0]</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="J43" t="n">
         <v>-1</v>
@@ -2300,18 +2300,18 @@
         <v>120</v>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G47" t="n">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>[0, 12.0]</t>
+          <t>[0, 60.0]</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J47" t="n">
         <v>-1</v>
@@ -2338,18 +2338,18 @@
         <v>120</v>
       </c>
       <c r="F48" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G48" t="n">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[0, 13.0]</t>
+          <t>[0, 61.0]</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="J48" t="n">
         <v>-1</v>
@@ -2376,18 +2376,18 @@
         <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G49" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0, 35.0]</t>
+          <t>[0, 79.0]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="J49" t="n">
         <v>-1</v>
@@ -2414,18 +2414,18 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G50" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[0, 20.0]</t>
+          <t>[0, 68.0]</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2454,18 +2454,18 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[0, 1]</t>
+          <t>[0, 49]</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2654,18 +2654,18 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="G56" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[0, 131.0]</t>
+          <t>[0, 179.0]</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2694,18 +2694,18 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="G57" t="n">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[0, 136.0]</t>
+          <t>[0, 184.0]</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2854,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G61" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2894,10 +2894,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G62" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2934,18 +2934,18 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="G63" t="n">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[0, 130.0]</t>
+          <t>[0, 178.0]</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3094,18 +3094,18 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="G67" t="n">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[0, 132.0]</t>
+          <t>[0, 180.0]</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3134,18 +3134,18 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="G68" t="n">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[0, 133.0]</t>
+          <t>[0, 181.0]</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3174,18 +3174,18 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="G69" t="n">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0, 155.0]</t>
+          <t>[0, 199.0]</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3214,18 +3214,18 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G70" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>[0, 4.0]</t>
+          <t>[0, 52.0]</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3494,18 +3494,18 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G77" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 46.0]</t>
+          <t>[0, 44.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3534,18 +3534,18 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G78" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 40.0]</t>
+          <t>[0, 45.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3574,18 +3574,18 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G79" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0, 41.0]</t>
+          <t>[0, 46.0]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3734,18 +3734,18 @@
         <v>120</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="G83" t="n">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[0, 7.0]</t>
+          <t>[0, 55.0]</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J83" t="n">
         <v>-1</v>
@@ -3772,18 +3772,18 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="G84" t="n">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>[0, 127.0]</t>
+          <t>[0, 175.0]</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -786,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -986,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1026,10 +1026,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" t="n">
         <v>23</v>
-      </c>
-      <c r="G15" t="n">
-        <v>31</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1786,18 +1786,18 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G34" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0, 18.0]</t>
+          <t>[0, 34.0]</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1839,8 +1839,10 @@
       <c r="I35" t="n">
         <v>59</v>
       </c>
-      <c r="J35" t="n">
-        <v>-1</v>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1877,8 +1879,10 @@
       <c r="I36" t="n">
         <v>64</v>
       </c>
-      <c r="J36" t="n">
-        <v>-1</v>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1942,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
+        <v>70</v>
+      </c>
+      <c r="G38" t="n">
         <v>71</v>
-      </c>
-      <c r="G38" t="n">
-        <v>72</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1982,18 +1986,18 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G39" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0, 21.0]</t>
+          <t>[0, 29.0]</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2022,18 +2026,18 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G40" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0, 31.0]</t>
+          <t>[0, 23.0]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2062,18 +2066,18 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G41" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0, 34.0]</t>
+          <t>[0, 26.0]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2155,8 +2159,10 @@
       <c r="I43" t="n">
         <v>58</v>
       </c>
-      <c r="J43" t="n">
-        <v>-1</v>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2180,10 +2186,10 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G44" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2220,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G45" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2313,8 +2319,10 @@
       <c r="I47" t="n">
         <v>60</v>
       </c>
-      <c r="J47" t="n">
-        <v>-1</v>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2351,8 +2359,10 @@
       <c r="I48" t="n">
         <v>61</v>
       </c>
-      <c r="J48" t="n">
-        <v>-1</v>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -2389,8 +2399,10 @@
       <c r="I49" t="n">
         <v>79</v>
       </c>
-      <c r="J49" t="n">
-        <v>-1</v>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -2414,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G50" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2574,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G54" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2614,18 +2626,18 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G55" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0, 20.0]</t>
+          <t>[0, 36.0]</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2654,10 +2666,10 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G56" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2774,18 +2786,18 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G59" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0, 27.0]</t>
+          <t>[0, 30.0]</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2814,18 +2826,18 @@
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G60" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0, 34.0]</t>
+          <t>[0, 26.0]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2854,18 +2866,18 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G61" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0, 35.0]</t>
+          <t>[0, 27.0]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2894,10 +2906,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G62" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2974,18 +2986,18 @@
         <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G64" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0, 52.0]</t>
+          <t>[0, 55.0]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3014,18 +3026,18 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G65" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0, 53.0]</t>
+          <t>[0, 51.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3134,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G68" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3334,18 +3346,18 @@
         <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G73" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0, 22.0]</t>
+          <t>[0, 18.0]</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3374,18 +3386,18 @@
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G74" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0, 24.0]</t>
+          <t>[0, 41.0]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3454,18 +3466,18 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G76" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0, 29.0]</t>
+          <t>[0, 32.0]</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3494,18 +3506,18 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G77" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 44.0]</t>
+          <t>[0, 48.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3534,18 +3546,18 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G78" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 45.0]</t>
+          <t>[0, 42.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3574,18 +3586,18 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G79" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0, 46.0]</t>
+          <t>[0, 43.0]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3621,11 +3633,11 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0, 64.0]</t>
+          <t>[0, 65.0]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3654,18 +3666,18 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G81" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0, 65.0]</t>
+          <t>[0, 60.0]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3747,8 +3759,10 @@
       <c r="I83" t="n">
         <v>55</v>
       </c>
-      <c r="J83" t="n">
-        <v>-1</v>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>AGING</t>
+        </is>
       </c>
     </row>
     <row r="84">

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2" t="n">
         <v>67</v>
-      </c>
-      <c r="G2" t="n">
-        <v>70</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G5" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -786,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -986,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G16" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1186,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1266,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
+        <v>77</v>
+      </c>
+      <c r="G24" t="n">
         <v>78</v>
-      </c>
-      <c r="G24" t="n">
-        <v>79</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1506,18 +1506,18 @@
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G27" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0, 70.0]</t>
+          <t>[0, 67.0]</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1546,18 +1546,18 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0, 75.0]</t>
+          <t>[0, 62.0]</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0, 80.0]</t>
+          <t>[0, 72.0]</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1626,18 +1626,18 @@
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0, 85.0]</t>
+          <t>[0, 77.0]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1786,18 +1786,18 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G34" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0, 34.0]</t>
+          <t>[0, 41.0]</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1946,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1986,18 +1986,18 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G39" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0, 29.0]</t>
+          <t>[0, 47.0]</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2066,18 +2066,18 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G41" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0, 26.0]</t>
+          <t>[0, 57.0]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2106,18 +2106,18 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G42" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0, 37.0]</t>
+          <t>[0, 44.0]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2186,18 +2186,18 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G44" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0, 47.0]</t>
+          <t>[0, 33.0]</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2226,18 +2226,18 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G45" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0, 50.0]</t>
+          <t>[0, 36.0]</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2266,18 +2266,18 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G46" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0, 57.0]</t>
+          <t>[0, 54.0]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2386,18 +2386,18 @@
         <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G49" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0, 79.0]</t>
+          <t>[0, 78.0]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2426,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
+        <v>70</v>
+      </c>
+      <c r="G50" t="n">
         <v>71</v>
-      </c>
-      <c r="G50" t="n">
-        <v>72</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2626,18 +2626,18 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G55" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0, 36.0]</t>
+          <t>[0, 43.0]</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2786,18 +2786,18 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G59" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0, 30.0]</t>
+          <t>[0, 48.0]</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2826,10 +2826,10 @@
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G60" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2866,18 +2866,18 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G61" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0, 27.0]</t>
+          <t>[0, 58.0]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2906,18 +2906,18 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G62" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0, 38.0]</t>
+          <t>[0, 45.0]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2986,22 +2986,22 @@
         <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G64" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0, 55.0]</t>
+          <t>[0, 37.0]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2270</t>
         </is>
       </c>
     </row>
@@ -3026,22 +3026,22 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G65" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0, 51.0]</t>
+          <t>[0, 38.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>C2260</t>
+          <t>C2270</t>
         </is>
       </c>
     </row>
@@ -3073,11 +3073,11 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0, 59.0]</t>
+          <t>[0, 56.0]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3186,18 +3186,18 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
+        <v>198</v>
+      </c>
+      <c r="G69" t="n">
         <v>199</v>
       </c>
-      <c r="G69" t="n">
-        <v>200</v>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0, 199.0]</t>
+          <t>[0, 198.0]</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3386,18 +3386,18 @@
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G74" t="n">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0, 41.0]</t>
+          <t>[0, 67.0]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3466,18 +3466,18 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G76" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0, 32.0]</t>
+          <t>[0, 51.0]</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3506,18 +3506,18 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G77" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 48.0]</t>
+          <t>[0, 31.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3546,18 +3546,18 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G78" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 42.0]</t>
+          <t>[0, 60.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3586,18 +3586,18 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0, 43.0]</t>
+          <t>[0, 50.0]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3626,18 +3626,18 @@
         <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G80" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0, 65.0]</t>
+          <t>[0, 74.0]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3666,18 +3666,18 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G81" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0, 60.0]</t>
+          <t>[0, 52.0]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>

--- a/python_engine/data/output/result.xlsx
+++ b/python_engine/data/output/result.xlsx
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,10 +586,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -626,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G5" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -786,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -986,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1026,10 +1026,10 @@
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1186,10 +1186,10 @@
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G19" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1266,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G24" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1506,18 +1506,18 @@
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G27" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0, 67.0]</t>
+          <t>[0, 74.0]</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1546,18 +1546,18 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G28" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0, 62.0]</t>
+          <t>[0, 79.0]</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1586,18 +1586,18 @@
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G29" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0, 72.0]</t>
+          <t>[0, 84.0]</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1626,18 +1626,18 @@
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G30" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0, 77.0]</t>
+          <t>[0, 89.0]</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1786,18 +1786,18 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>[0, 41.0]</t>
+          <t>[0, 18.0]</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1986,18 +1986,18 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G39" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>[0, 47.0]</t>
+          <t>[0, 21.0]</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2026,18 +2026,18 @@
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G40" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>[0, 23.0]</t>
+          <t>[0, 31.0]</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2066,18 +2066,18 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G41" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[0, 57.0]</t>
+          <t>[0, 34.0]</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2106,18 +2106,18 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G42" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[0, 44.0]</t>
+          <t>[0, 37.0]</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2186,18 +2186,18 @@
         <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G44" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[0, 33.0]</t>
+          <t>[0, 57.0]</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2226,18 +2226,18 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G45" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>[0, 36.0]</t>
+          <t>[0, 40.0]</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2266,18 +2266,18 @@
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G46" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>[0, 54.0]</t>
+          <t>[0, 47.0]</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2386,18 +2386,18 @@
         <v>120</v>
       </c>
       <c r="F49" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G49" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>[0, 78.0]</t>
+          <t>[0, 75.0]</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2513,11 +2513,11 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[0, 9.0]</t>
+          <t>[0, 7.0]</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G54" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2626,18 +2626,18 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="G55" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[0, 43.0]</t>
+          <t>[0, 20.0]</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2746,10 +2746,10 @@
         <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2786,18 +2786,18 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G59" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>[0, 48.0]</t>
+          <t>[0, 22.0]</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2826,18 +2826,18 @@
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G60" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[0, 26.0]</t>
+          <t>[0, 34.0]</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2866,18 +2866,18 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G61" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[0, 58.0]</t>
+          <t>[0, 35.0]</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2906,18 +2906,18 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[0, 45.0]</t>
+          <t>[0, 38.0]</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2986,22 +2986,22 @@
         <v>5</v>
       </c>
       <c r="F64" t="n">
+        <v>64</v>
+      </c>
+      <c r="G64" t="n">
         <v>69</v>
       </c>
-      <c r="G64" t="n">
-        <v>74</v>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[0, 37.0]</t>
+          <t>[0, 64.0]</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
@@ -3026,22 +3026,22 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G65" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[0, 38.0]</t>
+          <t>[0, 44.0]</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>C2270</t>
+          <t>C2260</t>
         </is>
       </c>
     </row>
@@ -3066,18 +3066,18 @@
         <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>[0, 56.0]</t>
+          <t>[0, 49.0]</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3186,18 +3186,18 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G69" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>[0, 198.0]</t>
+          <t>[0, 195.0]</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3346,18 +3346,18 @@
         <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[0, 18.0]</t>
+          <t>[0, 27.0]</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3386,18 +3386,18 @@
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G74" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>[0, 67.0]</t>
+          <t>[0, 25.0]</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3426,18 +3426,18 @@
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>[0, 6.0]</t>
+          <t>[0, 31.0]</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3466,18 +3466,18 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G76" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>[0, 51.0]</t>
+          <t>[0, 26.0]</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3506,18 +3506,18 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G77" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>[0, 31.0]</t>
+          <t>[0, 58.0]</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3546,18 +3546,18 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G78" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>[0, 60.0]</t>
+          <t>[0, 40.0]</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3586,18 +3586,18 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G79" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[0, 50.0]</t>
+          <t>[0, 41.0]</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3626,18 +3626,18 @@
         <v>8</v>
       </c>
       <c r="F80" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G80" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>[0, 74.0]</t>
+          <t>[0, 69.0]</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3666,18 +3666,18 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G81" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>[0, 52.0]</t>
+          <t>[0, 60.0]</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3706,18 +3706,18 @@
         <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G82" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[0, 63.0]</t>
+          <t>[0, 53.0]</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
